--- a/AstrumConfig/Tables/Datas/Entity/#EntityBaseTable.xlsx
+++ b/AstrumConfig/Tables/Datas/Entity/#EntityBaseTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14490"/>
+    <workbookView windowHeight="16880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -35,7 +35,10 @@
     <t>entityId</t>
   </si>
   <si>
-    <t>modelId</t>
+    <t>modelName</t>
+  </si>
+  <si>
+    <t>modelPath</t>
   </si>
   <si>
     <t>idleAction</t>
@@ -74,7 +77,10 @@
     <t>实体ID</t>
   </si>
   <si>
-    <t>模型ID</t>
+    <t>模型名字</t>
+  </si>
+  <si>
+    <t>模型路径</t>
   </si>
   <si>
     <t>静止动作</t>
@@ -95,58 +101,10 @@
     <t>死亡动作</t>
   </si>
   <si>
-    <t>idle_01</t>
-  </si>
-  <si>
-    <t>walk_01</t>
-  </si>
-  <si>
-    <t>run_01</t>
-  </si>
-  <si>
-    <t>jump_01</t>
-  </si>
-  <si>
-    <t>birth_01</t>
-  </si>
-  <si>
-    <t>death_01</t>
-  </si>
-  <si>
-    <t>idle_02</t>
-  </si>
-  <si>
-    <t>walk_02</t>
-  </si>
-  <si>
-    <t>run_02</t>
-  </si>
-  <si>
-    <t>jump_02</t>
-  </si>
-  <si>
-    <t>birth_02</t>
-  </si>
-  <si>
-    <t>death_02</t>
-  </si>
-  <si>
-    <t>idle_03</t>
-  </si>
-  <si>
-    <t>walk_03</t>
-  </si>
-  <si>
-    <t>run_03</t>
-  </si>
-  <si>
-    <t>jump_03</t>
-  </si>
-  <si>
-    <t>birth_03</t>
-  </si>
-  <si>
-    <t>death_03</t>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>Assets/ArtRes/Unit/Role/Knight/Knight.prefab</t>
   </si>
 </sst>
 </file>
@@ -159,14 +117,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,148 +573,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,20 +1066,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="29.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="30.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="27.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="29.4272727272727" customWidth="1"/>
+    <col min="3" max="3" width="30.8545454545455" customWidth="1"/>
+    <col min="4" max="4" width="46.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="27.8545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,19 +1108,22 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1183,119 +1138,101 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>1001</v>
       </c>
-      <c r="C5">
-        <v>2001</v>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
+      <c r="E5">
+        <v>1001</v>
+      </c>
+      <c r="F5">
+        <v>1002</v>
+      </c>
+      <c r="G5">
+        <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>1002</v>
       </c>
-      <c r="C6">
-        <v>2002</v>
-      </c>
       <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1001</v>
+      </c>
+      <c r="F6">
+        <v>1002</v>
+      </c>
+      <c r="G6">
+        <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>1003</v>
       </c>
-      <c r="C7">
-        <v>2003</v>
-      </c>
       <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1001</v>
+      </c>
+      <c r="F7">
+        <v>1002</v>
+      </c>
+      <c r="G7">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
